--- a/monthlydata.xlsx
+++ b/monthlydata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\bekkys deggendorf docs 2022\Thesis\climate_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBEB591-8A93-482E-BBF5-C7A4BCB6057D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E04AE-90E4-4E82-9210-895D095F2156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E099C543-54B5-45A0-A7BA-9C95A4247D04}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +514,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -546,8 +546,8 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
+      <c r="J2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>3</v>
       </c>
     </row>
@@ -610,7 +610,7 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>5</v>
       </c>
     </row>
@@ -642,7 +642,7 @@
       <c r="I5" s="3">
         <v>1.4</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
@@ -674,7 +674,7 @@
       <c r="I6" s="3">
         <v>11.3</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>0</v>
       </c>
     </row>
@@ -706,7 +706,7 @@
       <c r="I7" s="3">
         <v>24</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>0</v>
       </c>
     </row>
@@ -738,7 +738,7 @@
       <c r="I8" s="3">
         <v>40.1</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>0</v>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="I9" s="3">
         <v>43.4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>1</v>
       </c>
     </row>
@@ -802,7 +802,7 @@
       <c r="I10" s="3">
         <v>36.700000000000003</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
@@ -834,7 +834,7 @@
       <c r="I11" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>0</v>
       </c>
     </row>
@@ -898,7 +898,7 @@
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
         <v>12</v>
       </c>
     </row>
@@ -930,7 +930,7 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>16</v>
       </c>
     </row>
@@ -962,7 +962,7 @@
       <c r="I15" s="3">
         <v>3.9</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>13</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
       <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>11</v>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       <c r="I17" s="3">
         <v>1.7</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17">
         <v>2</v>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       <c r="I18" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <v>0</v>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       <c r="I19" s="3">
         <v>29.6</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19">
         <v>0</v>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="I20" s="3">
         <v>40.200000000000003</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20">
         <v>3</v>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       <c r="I21" s="3">
         <v>50</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21">
         <v>2</v>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       <c r="I22" s="3">
         <v>30.3</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22">
         <v>0</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       <c r="I23" s="3">
         <v>28.8</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23">
         <v>2</v>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       <c r="I24" s="3">
         <v>0.1</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
         <v>2</v>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       <c r="I25" s="3">
         <v>0</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25">
         <v>4</v>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26">
         <v>7</v>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27">
         <v>23</v>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       <c r="I28" s="3">
         <v>0.5</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28">
         <v>12</v>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       <c r="I29" s="3">
         <v>0.3</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29">
         <v>1</v>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       <c r="I30" s="3">
         <v>7.4</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30">
         <v>1</v>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       <c r="I31" s="3">
         <v>15.1</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31">
         <v>0</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       <c r="I32" s="3">
         <v>37</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32">
         <v>0</v>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       <c r="I33" s="3">
         <v>41.9</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33">
         <v>0</v>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       <c r="I34" s="3">
         <v>34.299999999999997</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34">
         <v>0</v>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       <c r="I35" s="3">
         <v>6.2</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35">
         <v>0</v>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       <c r="I36" s="3">
         <v>0</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36">
         <v>6</v>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       <c r="I37" s="3">
         <v>0</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37">
         <v>2</v>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       <c r="I38" s="3">
         <v>0</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38">
         <v>4</v>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
       <c r="I39" s="3">
         <v>0</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39">
         <v>2</v>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       <c r="I40" s="3">
         <v>0</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40">
         <v>2</v>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       <c r="I41" s="3">
         <v>0.4</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41">
         <v>1</v>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       <c r="I42" s="3">
         <v>1.6</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42">
         <v>2</v>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="I43" s="3">
         <v>13.5</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43">
         <v>0</v>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="I44" s="3">
         <v>36.799999999999997</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44">
         <v>0</v>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       <c r="I45" s="3">
         <v>40.299999999999997</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45">
         <v>0</v>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       <c r="I46" s="3">
         <v>23.1</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46">
         <v>0</v>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       <c r="I47" s="3">
         <v>4.3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47">
         <v>1</v>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48">
         <v>3</v>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49">
         <v>22</v>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       <c r="I50" s="3">
         <v>0</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50">
         <v>57</v>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51">
         <v>42</v>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52">
         <v>8</v>
       </c>
     </row>
@@ -2178,8 +2178,8 @@
       <c r="I53" s="3">
         <v>5.4</v>
       </c>
-      <c r="J53" s="3">
-        <v>8</v>
+      <c r="J53">
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2210,8 +2210,8 @@
       <c r="I54" s="3">
         <v>7.5</v>
       </c>
-      <c r="J54" s="3">
-        <v>9</v>
+      <c r="J54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2242,8 +2242,8 @@
       <c r="I55" s="3">
         <v>12.9</v>
       </c>
-      <c r="J55" s="3">
-        <v>6</v>
+      <c r="J55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2274,7 +2274,7 @@
       <c r="I56" s="3">
         <v>29.4</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56">
         <v>1</v>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       <c r="I57" s="3">
         <v>38.6</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57">
         <v>0</v>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       <c r="I58" s="3">
         <v>30.8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58">
         <v>3</v>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       <c r="I59" s="3">
         <v>5.9</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59">
         <v>1</v>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60">
         <v>0</v>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       <c r="I61" s="3">
         <v>0</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61">
         <v>24</v>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62">
         <v>21</v>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="I63" s="3">
         <v>0</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63">
         <v>39</v>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       <c r="I64" s="3">
         <v>0.3</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64">
         <v>32</v>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       <c r="I65" s="3">
         <v>3.1</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65">
         <v>10</v>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       <c r="I66" s="3">
         <v>5</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66">
         <v>4</v>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       <c r="I67" s="3">
         <v>17.8</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67">
         <v>5</v>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       <c r="I68" s="3">
         <v>17.2</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68">
         <v>4</v>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       <c r="I69" s="3">
         <v>25.3</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69">
         <v>4</v>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       <c r="I70" s="3">
         <v>15.6</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70">
         <v>1</v>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       <c r="I71" s="3">
         <v>4.8</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71">
         <v>3</v>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       <c r="I72" s="3">
         <v>0.7</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72">
         <v>17</v>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       <c r="I73" s="3">
         <v>0</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73">
         <v>53</v>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       <c r="I74" s="3">
         <v>7.8</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74">
         <v>21</v>
       </c>
     </row>
@@ -2882,7 +2882,7 @@
       <c r="I75" s="3">
         <v>30.1</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75">
         <v>62</v>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       <c r="I76" s="3">
         <v>37</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76">
         <v>29</v>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       <c r="I77" s="3">
         <v>39</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77">
         <v>9</v>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       <c r="I78" s="3">
         <v>47.2</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78">
         <v>4</v>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
       <c r="I79" s="3">
         <v>53.1</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79">
         <v>9</v>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       <c r="I80" s="3">
         <v>53.9</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80">
         <v>17</v>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       <c r="I81" s="3">
         <v>54.3</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81">
         <v>13</v>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       <c r="I82" s="3">
         <v>57.9</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82">
         <v>18</v>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       <c r="I83" s="3">
         <v>41.9</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83">
         <v>13</v>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
       <c r="I84" s="3">
         <v>31.5</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84">
         <v>10</v>
       </c>
     </row>
@@ -3202,8 +3202,8 @@
       <c r="I85" s="3">
         <v>12</v>
       </c>
-      <c r="J85" s="3">
-        <v>20</v>
+      <c r="J85">
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3234,7 +3234,7 @@
       <c r="I86" s="3">
         <v>22.2</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86">
         <v>76</v>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       <c r="I87" s="3">
         <v>28.1</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87">
         <v>47</v>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       <c r="I88" s="3">
         <v>33.5</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88">
         <v>61</v>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
       <c r="I89" s="3">
         <v>36.9</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89">
         <v>5</v>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       <c r="I90" s="3">
         <v>44.6</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90">
         <v>9</v>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       <c r="I91" s="3">
         <v>60.4</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91">
         <v>13</v>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       <c r="I92" s="3">
         <v>59.3</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92">
         <v>15</v>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       <c r="I93" s="3">
         <v>54.2</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93">
         <v>11</v>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       <c r="I94" s="3">
         <v>61</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94">
         <v>16</v>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
       <c r="I95" s="3">
         <v>58.7</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95">
         <v>15</v>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       <c r="I96" s="3">
         <v>29.7</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96">
         <v>15</v>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       <c r="I97" s="3">
         <v>17.2</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97">
         <v>6</v>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       <c r="I98" s="3">
         <v>4</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98">
         <v>92</v>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       <c r="I99" s="3">
         <v>8</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99">
         <v>142</v>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       <c r="I100" s="3">
         <v>33.299999999999997</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100">
         <v>78</v>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       <c r="I101" s="3">
         <v>31.4</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101">
         <v>12</v>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       <c r="I102" s="3">
         <v>43</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102">
         <v>9</v>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       <c r="I103" s="3">
         <v>51</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103">
         <v>5</v>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
       <c r="I104" s="3">
         <v>59.9</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104">
         <v>2</v>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       <c r="I105" s="3">
         <v>34.299999999999997</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105">
         <v>5</v>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       <c r="I106" s="3">
         <v>59.3</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106">
         <v>8</v>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
       <c r="I107" s="3">
         <v>43.8</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107">
         <v>10</v>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       <c r="I108" s="3">
         <v>32.4</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108">
         <v>11</v>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
       <c r="I109" s="3">
         <v>26.7</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109">
         <v>9</v>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       <c r="I110" s="3">
         <v>20.8</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110">
         <v>31</v>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       <c r="I111" s="3">
         <v>23.7</v>
       </c>
-      <c r="J111" s="3">
+      <c r="J111">
         <v>34</v>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       <c r="I112" s="3">
         <v>28</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112">
         <v>42</v>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       <c r="I113" s="3">
         <v>26</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113">
         <v>8</v>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
       <c r="I114" s="3">
         <v>30.6</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114">
         <v>15</v>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       <c r="I115" s="3">
         <v>42.5</v>
       </c>
-      <c r="J115" s="3">
+      <c r="J115">
         <v>17</v>
       </c>
     </row>
@@ -4194,7 +4194,7 @@
       <c r="I116" s="3">
         <v>48.8</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116">
         <v>7</v>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       <c r="I117" s="3">
         <v>65.099999999999994</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117">
         <v>16</v>
       </c>
     </row>
@@ -4258,7 +4258,7 @@
       <c r="I118" s="3">
         <v>53.6</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J118">
         <v>7</v>
       </c>
     </row>
@@ -4290,7 +4290,7 @@
       <c r="I119" s="3">
         <v>43</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J119">
         <v>6</v>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       <c r="I120" s="3">
         <v>33.5</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J120">
         <v>13</v>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       <c r="I121" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J121">
         <v>12</v>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       <c r="I122" s="3">
         <v>6.7</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J122">
         <v>67</v>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       <c r="I123" s="3">
         <v>6.1</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J123">
         <v>72</v>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
       <c r="I124" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J124">
         <v>35</v>
       </c>
     </row>
@@ -4482,8 +4482,8 @@
       <c r="I125" s="3">
         <v>19</v>
       </c>
-      <c r="J125" s="3">
-        <v>20</v>
+      <c r="J125">
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -4514,8 +4514,8 @@
       <c r="I126" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="J126" s="3">
-        <v>21</v>
+      <c r="J126">
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -4546,8 +4546,8 @@
       <c r="I127" s="3">
         <v>44.3</v>
       </c>
-      <c r="J127" s="3">
-        <v>17</v>
+      <c r="J127">
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -4578,7 +4578,7 @@
       <c r="I128" s="3">
         <v>53.6</v>
       </c>
-      <c r="J128" s="3">
+      <c r="J128">
         <v>15</v>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
       <c r="I129" s="3">
         <v>44.6</v>
       </c>
-      <c r="J129" s="3">
+      <c r="J129">
         <v>11</v>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
       <c r="I130" s="3">
         <v>54.2</v>
       </c>
-      <c r="J130" s="3">
+      <c r="J130">
         <v>5</v>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
       <c r="I131" s="3">
         <v>34.1</v>
       </c>
-      <c r="J131" s="3">
+      <c r="J131">
         <v>9</v>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       <c r="I132" s="3">
         <v>13.5</v>
       </c>
-      <c r="J132" s="3">
+      <c r="J132">
         <v>11</v>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       <c r="I133" s="3">
         <v>4.2</v>
       </c>
-      <c r="J133" s="3">
+      <c r="J133">
         <v>6</v>
       </c>
     </row>
@@ -4770,7 +4770,7 @@
       <c r="I134" s="3">
         <v>4</v>
       </c>
-      <c r="J134" s="3">
+      <c r="J134">
         <v>123</v>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       <c r="I135" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J135" s="3">
+      <c r="J135">
         <v>67</v>
       </c>
     </row>
@@ -4834,7 +4834,7 @@
       <c r="I136" s="3">
         <v>19.5</v>
       </c>
-      <c r="J136" s="3">
+      <c r="J136">
         <v>58</v>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       <c r="I137" s="3">
         <v>24.4</v>
       </c>
-      <c r="J137" s="3">
+      <c r="J137">
         <v>27</v>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
       <c r="I138" s="3">
         <v>28.9</v>
       </c>
-      <c r="J138" s="3">
+      <c r="J138">
         <v>9</v>
       </c>
     </row>
@@ -4930,7 +4930,7 @@
       <c r="I139" s="3">
         <v>56.4</v>
       </c>
-      <c r="J139" s="3">
+      <c r="J139">
         <v>10</v>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
       <c r="I140" s="3">
         <v>61.2</v>
       </c>
-      <c r="J140" s="3">
+      <c r="J140">
         <v>10</v>
       </c>
     </row>
@@ -4994,7 +4994,7 @@
       <c r="I141" s="3">
         <v>52.4</v>
       </c>
-      <c r="J141" s="3">
+      <c r="J141">
         <v>9</v>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="I142" s="3">
         <v>49.9</v>
       </c>
-      <c r="J142" s="3">
+      <c r="J142">
         <v>5</v>
       </c>
     </row>
@@ -5058,7 +5058,7 @@
       <c r="I143" s="3">
         <v>37.4</v>
       </c>
-      <c r="J143" s="3">
+      <c r="J143">
         <v>15</v>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
       <c r="I144" s="3">
         <v>27.5</v>
       </c>
-      <c r="J144" s="3">
+      <c r="J144">
         <v>11</v>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       <c r="I145" s="3">
         <v>5.4</v>
       </c>
-      <c r="J145" s="3">
+      <c r="J145">
         <v>16</v>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
       <c r="I146" s="3">
         <v>0</v>
       </c>
-      <c r="J146" s="3">
+      <c r="J146">
         <v>26</v>
       </c>
     </row>
@@ -5186,7 +5186,7 @@
       <c r="I147" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="J147" s="3">
+      <c r="J147">
         <v>40</v>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
       <c r="I148" s="3">
         <v>27.3</v>
       </c>
-      <c r="J148" s="3">
+      <c r="J148">
         <v>11</v>
       </c>
     </row>
@@ -5250,7 +5250,7 @@
       <c r="I149" s="3">
         <v>29.2</v>
       </c>
-      <c r="J149" s="3">
+      <c r="J149">
         <v>4</v>
       </c>
     </row>
@@ -5282,7 +5282,7 @@
       <c r="I150" s="3">
         <v>37.9</v>
       </c>
-      <c r="J150" s="3">
+      <c r="J150">
         <v>3</v>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
       <c r="I151" s="3">
         <v>47.2</v>
       </c>
-      <c r="J151" s="3">
+      <c r="J151">
         <v>3</v>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       <c r="I152" s="3">
         <v>42.7</v>
       </c>
-      <c r="J152" s="3">
+      <c r="J152">
         <v>7</v>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       <c r="I153" s="3">
         <v>48.5</v>
       </c>
-      <c r="J153" s="3">
+      <c r="J153">
         <v>2</v>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       <c r="I154" s="3">
         <v>45.6</v>
       </c>
-      <c r="J154" s="3">
+      <c r="J154">
         <v>1</v>
       </c>
     </row>
@@ -5442,7 +5442,7 @@
       <c r="I155" s="3">
         <v>28.4</v>
       </c>
-      <c r="J155" s="3">
+      <c r="J155">
         <v>13</v>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       <c r="I156" s="3">
         <v>15.7</v>
       </c>
-      <c r="J156" s="3">
+      <c r="J156">
         <v>8</v>
       </c>
     </row>
@@ -5506,8 +5506,8 @@
       <c r="I157" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J157" s="3">
-        <v>23</v>
+      <c r="J157">
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -5538,7 +5538,7 @@
       <c r="I158" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J158" s="3">
+      <c r="J158">
         <v>66</v>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       <c r="I159" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="J159" s="3">
+      <c r="J159">
         <v>38</v>
       </c>
     </row>
@@ -5602,7 +5602,7 @@
       <c r="I160" s="3">
         <v>24.3</v>
       </c>
-      <c r="J160" s="3">
+      <c r="J160">
         <v>34</v>
       </c>
     </row>
@@ -5634,7 +5634,7 @@
       <c r="I161" s="3">
         <v>29.2</v>
       </c>
-      <c r="J161" s="3">
+      <c r="J161">
         <v>11</v>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="I162" s="3">
         <v>33.700000000000003</v>
       </c>
-      <c r="J162" s="3">
+      <c r="J162">
         <v>10</v>
       </c>
     </row>
@@ -5698,7 +5698,7 @@
       <c r="I163" s="3">
         <v>48.1</v>
       </c>
-      <c r="J163" s="3">
+      <c r="J163">
         <v>9</v>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
       <c r="I164" s="3">
         <v>55.4</v>
       </c>
-      <c r="J164" s="3">
+      <c r="J164">
         <v>15</v>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
       <c r="I165" s="3">
         <v>46.9</v>
       </c>
-      <c r="J165" s="3">
+      <c r="J165">
         <v>5</v>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
       <c r="I166" s="3">
         <v>46.7</v>
       </c>
-      <c r="J166" s="3">
+      <c r="J166">
         <v>18</v>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       <c r="I167" s="3">
         <v>51.9</v>
       </c>
-      <c r="J167" s="3">
+      <c r="J167">
         <v>11</v>
       </c>
     </row>
@@ -5858,7 +5858,7 @@
       <c r="I168" s="3">
         <v>13.5</v>
       </c>
-      <c r="J168" s="3">
+      <c r="J168">
         <v>23</v>
       </c>
     </row>
@@ -5890,7 +5890,7 @@
       <c r="I169" s="3">
         <v>4.3</v>
       </c>
-      <c r="J169" s="3">
+      <c r="J169">
         <v>33</v>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
       <c r="I170" s="3">
         <v>1.7</v>
       </c>
-      <c r="J170" s="3">
+      <c r="J170">
         <v>97</v>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       <c r="I171" s="3">
         <v>0.6</v>
       </c>
-      <c r="J171" s="3">
+      <c r="J171">
         <v>119</v>
       </c>
     </row>
@@ -5986,7 +5986,7 @@
       <c r="I172" s="3">
         <v>20.8</v>
       </c>
-      <c r="J172" s="3">
+      <c r="J172">
         <v>84</v>
       </c>
     </row>
@@ -6018,7 +6018,7 @@
       <c r="I173" s="3">
         <v>22.2</v>
       </c>
-      <c r="J173" s="3">
+      <c r="J173">
         <v>13</v>
       </c>
     </row>
@@ -6050,7 +6050,7 @@
       <c r="I174" s="3">
         <v>26.1</v>
       </c>
-      <c r="J174" s="3">
+      <c r="J174">
         <v>16</v>
       </c>
     </row>
@@ -6082,7 +6082,7 @@
       <c r="I175" s="3">
         <v>39.6</v>
       </c>
-      <c r="J175" s="3">
+      <c r="J175">
         <v>12</v>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       <c r="I176" s="3">
         <v>49.5</v>
       </c>
-      <c r="J176" s="3">
+      <c r="J176">
         <v>9</v>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
       <c r="I177" s="3">
         <v>28.1</v>
       </c>
-      <c r="J177" s="3">
+      <c r="J177">
         <v>18</v>
       </c>
     </row>
@@ -6178,7 +6178,7 @@
       <c r="I178" s="3">
         <v>51.9</v>
       </c>
-      <c r="J178" s="3">
+      <c r="J178">
         <v>12</v>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="I179" s="3">
         <v>29.3</v>
       </c>
-      <c r="J179" s="3">
+      <c r="J179">
         <v>10</v>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
       <c r="I180" s="3">
         <v>7.2</v>
       </c>
-      <c r="J180" s="3">
+      <c r="J180">
         <v>14</v>
       </c>
     </row>
@@ -6274,7 +6274,7 @@
       <c r="I181" s="3">
         <v>4.2</v>
       </c>
-      <c r="J181" s="3">
+      <c r="J181">
         <v>14</v>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       <c r="I182" s="3">
         <v>1.2</v>
       </c>
-      <c r="J182" s="3">
+      <c r="J182">
         <v>13</v>
       </c>
     </row>
@@ -6338,7 +6338,7 @@
       <c r="I183" s="3">
         <v>2.8</v>
       </c>
-      <c r="J183" s="3">
+      <c r="J183">
         <v>18</v>
       </c>
     </row>
@@ -6370,7 +6370,7 @@
       <c r="I184" s="3">
         <v>14.2</v>
       </c>
-      <c r="J184" s="3">
+      <c r="J184">
         <v>29</v>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
       <c r="I185" s="3">
         <v>15</v>
       </c>
-      <c r="J185" s="3">
+      <c r="J185">
         <v>11</v>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       <c r="I186" s="3">
         <v>20.6</v>
       </c>
-      <c r="J186" s="3">
+      <c r="J186">
         <v>12</v>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       <c r="I187" s="3">
         <v>27.5</v>
       </c>
-      <c r="J187" s="3">
+      <c r="J187">
         <v>12</v>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       <c r="I188" s="3">
         <v>35.200000000000003</v>
       </c>
-      <c r="J188" s="3">
+      <c r="J188">
         <v>11</v>
       </c>
     </row>
@@ -6530,7 +6530,7 @@
       <c r="I189" s="3">
         <v>54</v>
       </c>
-      <c r="J189" s="3">
+      <c r="J189">
         <v>14</v>
       </c>
     </row>
@@ -6562,7 +6562,7 @@
       <c r="I190" s="3">
         <v>41.8</v>
       </c>
-      <c r="J190" s="3">
+      <c r="J190">
         <v>5</v>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       <c r="I191" s="3">
         <v>26.1</v>
       </c>
-      <c r="J191" s="3">
+      <c r="J191">
         <v>15</v>
       </c>
     </row>
@@ -6626,7 +6626,7 @@
       <c r="I192" s="3">
         <v>11.5</v>
       </c>
-      <c r="J192" s="3">
+      <c r="J192">
         <v>8</v>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       <c r="I193" s="3">
         <v>0.8</v>
       </c>
-      <c r="J193" s="3">
+      <c r="J193">
         <v>14</v>
       </c>
     </row>
@@ -6690,7 +6690,7 @@
       <c r="I194" s="3">
         <v>1.3</v>
       </c>
-      <c r="J194" s="3">
+      <c r="J194">
         <v>75</v>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       <c r="I195" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J195" s="3">
+      <c r="J195">
         <v>109</v>
       </c>
     </row>
@@ -6754,7 +6754,7 @@
       <c r="I196" s="3">
         <v>11.2</v>
       </c>
-      <c r="J196" s="3">
+      <c r="J196">
         <v>22</v>
       </c>
     </row>
@@ -6786,8 +6786,8 @@
       <c r="I197" s="3">
         <v>14.3</v>
       </c>
-      <c r="J197" s="3">
-        <v>20</v>
+      <c r="J197">
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -6818,8 +6818,8 @@
       <c r="I198" s="3">
         <v>19.5</v>
       </c>
-      <c r="J198" s="3">
-        <v>25</v>
+      <c r="J198">
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -6850,8 +6850,8 @@
       <c r="I199" s="3">
         <v>33.200000000000003</v>
       </c>
-      <c r="J199" s="3">
-        <v>25</v>
+      <c r="J199">
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -6882,7 +6882,7 @@
       <c r="I200" s="3">
         <v>47.7</v>
       </c>
-      <c r="J200" s="3">
+      <c r="J200">
         <v>28</v>
       </c>
     </row>
@@ -6914,7 +6914,7 @@
       <c r="I201" s="3">
         <v>43.1</v>
       </c>
-      <c r="J201" s="3">
+      <c r="J201">
         <v>16</v>
       </c>
     </row>
@@ -6946,7 +6946,7 @@
       <c r="I202" s="3">
         <v>46.1</v>
       </c>
-      <c r="J202" s="3">
+      <c r="J202">
         <v>20</v>
       </c>
     </row>
@@ -6978,7 +6978,7 @@
       <c r="I203" s="3">
         <v>28.9</v>
       </c>
-      <c r="J203" s="3">
+      <c r="J203">
         <v>14</v>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
       <c r="I204" s="3">
         <v>7.8</v>
       </c>
-      <c r="J204" s="3">
+      <c r="J204">
         <v>16</v>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
       <c r="I205" s="3">
         <v>1.9</v>
       </c>
-      <c r="J205" s="3">
+      <c r="J205">
         <v>18</v>
       </c>
     </row>
@@ -7074,7 +7074,7 @@
       <c r="I206" s="3">
         <v>3.4</v>
       </c>
-      <c r="J206" s="3">
+      <c r="J206">
         <v>130</v>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       <c r="I207" s="3">
         <v>3.1</v>
       </c>
-      <c r="J207" s="3">
+      <c r="J207">
         <v>80</v>
       </c>
     </row>
@@ -7138,7 +7138,7 @@
       <c r="I208" s="3">
         <v>14.7</v>
       </c>
-      <c r="J208" s="3">
+      <c r="J208">
         <v>52</v>
       </c>
     </row>
@@ -7170,7 +7170,7 @@
       <c r="I209" s="3">
         <v>16.8</v>
       </c>
-      <c r="J209" s="3">
+      <c r="J209">
         <v>34</v>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
       <c r="I210" s="3">
         <v>20.3</v>
       </c>
-      <c r="J210" s="3">
+      <c r="J210">
         <v>13</v>
       </c>
     </row>
@@ -7234,7 +7234,7 @@
       <c r="I211" s="3">
         <v>43.2</v>
       </c>
-      <c r="J211" s="3">
+      <c r="J211">
         <v>8</v>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
       <c r="I212" s="3">
         <v>44.5</v>
       </c>
-      <c r="J212" s="3">
+      <c r="J212">
         <v>26</v>
       </c>
     </row>
@@ -7298,7 +7298,7 @@
       <c r="I213" s="3">
         <v>43.5</v>
       </c>
-      <c r="J213" s="3">
+      <c r="J213">
         <v>19</v>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
       <c r="I214" s="3">
         <v>42.8</v>
       </c>
-      <c r="J214" s="3">
+      <c r="J214">
         <v>13</v>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="I215" s="3">
         <v>30.9</v>
       </c>
-      <c r="J215" s="3">
+      <c r="J215">
         <v>15</v>
       </c>
     </row>
@@ -7394,7 +7394,7 @@
       <c r="I216" s="3">
         <v>18.5</v>
       </c>
-      <c r="J216" s="3">
+      <c r="J216">
         <v>15</v>
       </c>
     </row>
@@ -7426,7 +7426,7 @@
       <c r="I217" s="3">
         <v>0.1</v>
       </c>
-      <c r="J217" s="3">
+      <c r="J217">
         <v>29</v>
       </c>
     </row>
